--- a/Modules/Config/Table/LanguageSettingConfig.xlsx
+++ b/Modules/Config/Table/LanguageSettingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12540"/>
+    <workbookView windowWidth="30048" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1132,9 +1132,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,14 +2335,14 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HN27"/>
+  <dimension ref="A1:HN19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2389,219 +2386,219 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-      <c r="DH1" s="17"/>
-      <c r="DI1" s="17"/>
-      <c r="DJ1" s="17"/>
-      <c r="DK1" s="17"/>
-      <c r="DL1" s="17"/>
-      <c r="DM1" s="17"/>
-      <c r="DN1" s="17"/>
-      <c r="DO1" s="17"/>
-      <c r="DP1" s="17"/>
-      <c r="DQ1" s="17"/>
-      <c r="DR1" s="17"/>
-      <c r="DS1" s="17"/>
-      <c r="DT1" s="17"/>
-      <c r="DU1" s="17"/>
-      <c r="DV1" s="17"/>
-      <c r="DW1" s="17"/>
-      <c r="DX1" s="17"/>
-      <c r="DY1" s="17"/>
-      <c r="DZ1" s="17"/>
-      <c r="EA1" s="17"/>
-      <c r="EB1" s="17"/>
-      <c r="EC1" s="17"/>
-      <c r="ED1" s="17"/>
-      <c r="EE1" s="17"/>
-      <c r="EF1" s="17"/>
-      <c r="EG1" s="17"/>
-      <c r="EH1" s="17"/>
-      <c r="EI1" s="17"/>
-      <c r="EJ1" s="17"/>
-      <c r="EK1" s="17"/>
-      <c r="EL1" s="17"/>
-      <c r="EM1" s="17"/>
-      <c r="EN1" s="17"/>
-      <c r="EO1" s="17"/>
-      <c r="EP1" s="17"/>
-      <c r="EQ1" s="17"/>
-      <c r="ER1" s="17"/>
-      <c r="ES1" s="17"/>
-      <c r="ET1" s="17"/>
-      <c r="EU1" s="17"/>
-      <c r="EV1" s="17"/>
-      <c r="EW1" s="17"/>
-      <c r="EX1" s="17"/>
-      <c r="EY1" s="17"/>
-      <c r="EZ1" s="17"/>
-      <c r="FA1" s="17"/>
-      <c r="FB1" s="17"/>
-      <c r="FC1" s="17"/>
-      <c r="FD1" s="17"/>
-      <c r="FE1" s="17"/>
-      <c r="FF1" s="17"/>
-      <c r="FG1" s="17"/>
-      <c r="FH1" s="17"/>
-      <c r="FI1" s="17"/>
-      <c r="FJ1" s="17"/>
-      <c r="FK1" s="17"/>
-      <c r="FL1" s="17"/>
-      <c r="FM1" s="17"/>
-      <c r="FN1" s="17"/>
-      <c r="FO1" s="17"/>
-      <c r="FP1" s="17"/>
-      <c r="FQ1" s="17"/>
-      <c r="FR1" s="17"/>
-      <c r="FS1" s="17"/>
-      <c r="FT1" s="17"/>
-      <c r="FU1" s="17"/>
-      <c r="FV1" s="17"/>
-      <c r="FW1" s="17"/>
-      <c r="FX1" s="17"/>
-      <c r="FY1" s="17"/>
-      <c r="FZ1" s="17"/>
-      <c r="GA1" s="17"/>
-      <c r="GB1" s="17"/>
-      <c r="GC1" s="17"/>
-      <c r="GD1" s="17"/>
-      <c r="GE1" s="17"/>
-      <c r="GF1" s="17"/>
-      <c r="GG1" s="17"/>
-      <c r="GH1" s="17"/>
-      <c r="GI1" s="17"/>
-      <c r="GJ1" s="17"/>
-      <c r="GK1" s="17"/>
-      <c r="GL1" s="17"/>
-      <c r="GM1" s="17"/>
-      <c r="GN1" s="17"/>
-      <c r="GO1" s="17"/>
-      <c r="GP1" s="17"/>
-      <c r="GQ1" s="17"/>
-      <c r="GR1" s="17"/>
-      <c r="GS1" s="17"/>
-      <c r="GT1" s="17"/>
-      <c r="GU1" s="17"/>
-      <c r="GV1" s="17"/>
-      <c r="GW1" s="17"/>
-      <c r="GX1" s="17"/>
-      <c r="GY1" s="17"/>
-      <c r="GZ1" s="17"/>
-      <c r="HA1" s="17"/>
-      <c r="HB1" s="17"/>
-      <c r="HC1" s="17"/>
-      <c r="HD1" s="17"/>
-      <c r="HE1" s="17"/>
-      <c r="HF1" s="17"/>
-      <c r="HG1" s="17"/>
-      <c r="HH1" s="17"/>
-      <c r="HI1" s="17"/>
-      <c r="HJ1" s="17"/>
-      <c r="HK1" s="17"/>
-      <c r="HL1" s="17"/>
-      <c r="HM1" s="17"/>
-      <c r="HN1" s="17"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="16"/>
+      <c r="DP1" s="16"/>
+      <c r="DQ1" s="16"/>
+      <c r="DR1" s="16"/>
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="16"/>
+      <c r="DU1" s="16"/>
+      <c r="DV1" s="16"/>
+      <c r="DW1" s="16"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
+      <c r="EE1" s="16"/>
+      <c r="EF1" s="16"/>
+      <c r="EG1" s="16"/>
+      <c r="EH1" s="16"/>
+      <c r="EI1" s="16"/>
+      <c r="EJ1" s="16"/>
+      <c r="EK1" s="16"/>
+      <c r="EL1" s="16"/>
+      <c r="EM1" s="16"/>
+      <c r="EN1" s="16"/>
+      <c r="EO1" s="16"/>
+      <c r="EP1" s="16"/>
+      <c r="EQ1" s="16"/>
+      <c r="ER1" s="16"/>
+      <c r="ES1" s="16"/>
+      <c r="ET1" s="16"/>
+      <c r="EU1" s="16"/>
+      <c r="EV1" s="16"/>
+      <c r="EW1" s="16"/>
+      <c r="EX1" s="16"/>
+      <c r="EY1" s="16"/>
+      <c r="EZ1" s="16"/>
+      <c r="FA1" s="16"/>
+      <c r="FB1" s="16"/>
+      <c r="FC1" s="16"/>
+      <c r="FD1" s="16"/>
+      <c r="FE1" s="16"/>
+      <c r="FF1" s="16"/>
+      <c r="FG1" s="16"/>
+      <c r="FH1" s="16"/>
+      <c r="FI1" s="16"/>
+      <c r="FJ1" s="16"/>
+      <c r="FK1" s="16"/>
+      <c r="FL1" s="16"/>
+      <c r="FM1" s="16"/>
+      <c r="FN1" s="16"/>
+      <c r="FO1" s="16"/>
+      <c r="FP1" s="16"/>
+      <c r="FQ1" s="16"/>
+      <c r="FR1" s="16"/>
+      <c r="FS1" s="16"/>
+      <c r="FT1" s="16"/>
+      <c r="FU1" s="16"/>
+      <c r="FV1" s="16"/>
+      <c r="FW1" s="16"/>
+      <c r="FX1" s="16"/>
+      <c r="FY1" s="16"/>
+      <c r="FZ1" s="16"/>
+      <c r="GA1" s="16"/>
+      <c r="GB1" s="16"/>
+      <c r="GC1" s="16"/>
+      <c r="GD1" s="16"/>
+      <c r="GE1" s="16"/>
+      <c r="GF1" s="16"/>
+      <c r="GG1" s="16"/>
+      <c r="GH1" s="16"/>
+      <c r="GI1" s="16"/>
+      <c r="GJ1" s="16"/>
+      <c r="GK1" s="16"/>
+      <c r="GL1" s="16"/>
+      <c r="GM1" s="16"/>
+      <c r="GN1" s="16"/>
+      <c r="GO1" s="16"/>
+      <c r="GP1" s="16"/>
+      <c r="GQ1" s="16"/>
+      <c r="GR1" s="16"/>
+      <c r="GS1" s="16"/>
+      <c r="GT1" s="16"/>
+      <c r="GU1" s="16"/>
+      <c r="GV1" s="16"/>
+      <c r="GW1" s="16"/>
+      <c r="GX1" s="16"/>
+      <c r="GY1" s="16"/>
+      <c r="GZ1" s="16"/>
+      <c r="HA1" s="16"/>
+      <c r="HB1" s="16"/>
+      <c r="HC1" s="16"/>
+      <c r="HD1" s="16"/>
+      <c r="HE1" s="16"/>
+      <c r="HF1" s="16"/>
+      <c r="HG1" s="16"/>
+      <c r="HH1" s="16"/>
+      <c r="HI1" s="16"/>
+      <c r="HJ1" s="16"/>
+      <c r="HK1" s="16"/>
+      <c r="HL1" s="16"/>
+      <c r="HM1" s="16"/>
+      <c r="HN1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="15.6" spans="1:222">
       <c r="A2" s="8" t="s">
@@ -2629,219 +2626,219 @@
         <v>11</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="17"/>
-      <c r="BU2" s="17"/>
-      <c r="BV2" s="17"/>
-      <c r="BW2" s="17"/>
-      <c r="BX2" s="17"/>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="17"/>
-      <c r="CD2" s="17"/>
-      <c r="CE2" s="17"/>
-      <c r="CF2" s="17"/>
-      <c r="CG2" s="17"/>
-      <c r="CH2" s="17"/>
-      <c r="CI2" s="17"/>
-      <c r="CJ2" s="17"/>
-      <c r="CK2" s="17"/>
-      <c r="CL2" s="17"/>
-      <c r="CM2" s="17"/>
-      <c r="CN2" s="17"/>
-      <c r="CO2" s="17"/>
-      <c r="CP2" s="17"/>
-      <c r="CQ2" s="17"/>
-      <c r="CR2" s="17"/>
-      <c r="CS2" s="17"/>
-      <c r="CT2" s="17"/>
-      <c r="CU2" s="17"/>
-      <c r="CV2" s="17"/>
-      <c r="CW2" s="17"/>
-      <c r="CX2" s="17"/>
-      <c r="CY2" s="17"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="17"/>
-      <c r="DB2" s="17"/>
-      <c r="DC2" s="17"/>
-      <c r="DD2" s="17"/>
-      <c r="DE2" s="17"/>
-      <c r="DF2" s="17"/>
-      <c r="DG2" s="17"/>
-      <c r="DH2" s="17"/>
-      <c r="DI2" s="17"/>
-      <c r="DJ2" s="17"/>
-      <c r="DK2" s="17"/>
-      <c r="DL2" s="17"/>
-      <c r="DM2" s="17"/>
-      <c r="DN2" s="17"/>
-      <c r="DO2" s="17"/>
-      <c r="DP2" s="17"/>
-      <c r="DQ2" s="17"/>
-      <c r="DR2" s="17"/>
-      <c r="DS2" s="17"/>
-      <c r="DT2" s="17"/>
-      <c r="DU2" s="17"/>
-      <c r="DV2" s="17"/>
-      <c r="DW2" s="17"/>
-      <c r="DX2" s="17"/>
-      <c r="DY2" s="17"/>
-      <c r="DZ2" s="17"/>
-      <c r="EA2" s="17"/>
-      <c r="EB2" s="17"/>
-      <c r="EC2" s="17"/>
-      <c r="ED2" s="17"/>
-      <c r="EE2" s="17"/>
-      <c r="EF2" s="17"/>
-      <c r="EG2" s="17"/>
-      <c r="EH2" s="17"/>
-      <c r="EI2" s="17"/>
-      <c r="EJ2" s="17"/>
-      <c r="EK2" s="17"/>
-      <c r="EL2" s="17"/>
-      <c r="EM2" s="17"/>
-      <c r="EN2" s="17"/>
-      <c r="EO2" s="17"/>
-      <c r="EP2" s="17"/>
-      <c r="EQ2" s="17"/>
-      <c r="ER2" s="17"/>
-      <c r="ES2" s="17"/>
-      <c r="ET2" s="17"/>
-      <c r="EU2" s="17"/>
-      <c r="EV2" s="17"/>
-      <c r="EW2" s="17"/>
-      <c r="EX2" s="17"/>
-      <c r="EY2" s="17"/>
-      <c r="EZ2" s="17"/>
-      <c r="FA2" s="17"/>
-      <c r="FB2" s="17"/>
-      <c r="FC2" s="17"/>
-      <c r="FD2" s="17"/>
-      <c r="FE2" s="17"/>
-      <c r="FF2" s="17"/>
-      <c r="FG2" s="17"/>
-      <c r="FH2" s="17"/>
-      <c r="FI2" s="17"/>
-      <c r="FJ2" s="17"/>
-      <c r="FK2" s="17"/>
-      <c r="FL2" s="17"/>
-      <c r="FM2" s="17"/>
-      <c r="FN2" s="17"/>
-      <c r="FO2" s="17"/>
-      <c r="FP2" s="17"/>
-      <c r="FQ2" s="17"/>
-      <c r="FR2" s="17"/>
-      <c r="FS2" s="17"/>
-      <c r="FT2" s="17"/>
-      <c r="FU2" s="17"/>
-      <c r="FV2" s="17"/>
-      <c r="FW2" s="17"/>
-      <c r="FX2" s="17"/>
-      <c r="FY2" s="17"/>
-      <c r="FZ2" s="17"/>
-      <c r="GA2" s="17"/>
-      <c r="GB2" s="17"/>
-      <c r="GC2" s="17"/>
-      <c r="GD2" s="17"/>
-      <c r="GE2" s="17"/>
-      <c r="GF2" s="17"/>
-      <c r="GG2" s="17"/>
-      <c r="GH2" s="17"/>
-      <c r="GI2" s="17"/>
-      <c r="GJ2" s="17"/>
-      <c r="GK2" s="17"/>
-      <c r="GL2" s="17"/>
-      <c r="GM2" s="17"/>
-      <c r="GN2" s="17"/>
-      <c r="GO2" s="17"/>
-      <c r="GP2" s="17"/>
-      <c r="GQ2" s="17"/>
-      <c r="GR2" s="17"/>
-      <c r="GS2" s="17"/>
-      <c r="GT2" s="17"/>
-      <c r="GU2" s="17"/>
-      <c r="GV2" s="17"/>
-      <c r="GW2" s="17"/>
-      <c r="GX2" s="17"/>
-      <c r="GY2" s="17"/>
-      <c r="GZ2" s="17"/>
-      <c r="HA2" s="17"/>
-      <c r="HB2" s="17"/>
-      <c r="HC2" s="17"/>
-      <c r="HD2" s="17"/>
-      <c r="HE2" s="17"/>
-      <c r="HF2" s="17"/>
-      <c r="HG2" s="17"/>
-      <c r="HH2" s="17"/>
-      <c r="HI2" s="17"/>
-      <c r="HJ2" s="17"/>
-      <c r="HK2" s="17"/>
-      <c r="HL2" s="17"/>
-      <c r="HM2" s="17"/>
-      <c r="HN2" s="17"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
+      <c r="DO2" s="16"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="16"/>
+      <c r="DV2" s="16"/>
+      <c r="DW2" s="16"/>
+      <c r="DX2" s="16"/>
+      <c r="DY2" s="16"/>
+      <c r="DZ2" s="16"/>
+      <c r="EA2" s="16"/>
+      <c r="EB2" s="16"/>
+      <c r="EC2" s="16"/>
+      <c r="ED2" s="16"/>
+      <c r="EE2" s="16"/>
+      <c r="EF2" s="16"/>
+      <c r="EG2" s="16"/>
+      <c r="EH2" s="16"/>
+      <c r="EI2" s="16"/>
+      <c r="EJ2" s="16"/>
+      <c r="EK2" s="16"/>
+      <c r="EL2" s="16"/>
+      <c r="EM2" s="16"/>
+      <c r="EN2" s="16"/>
+      <c r="EO2" s="16"/>
+      <c r="EP2" s="16"/>
+      <c r="EQ2" s="16"/>
+      <c r="ER2" s="16"/>
+      <c r="ES2" s="16"/>
+      <c r="ET2" s="16"/>
+      <c r="EU2" s="16"/>
+      <c r="EV2" s="16"/>
+      <c r="EW2" s="16"/>
+      <c r="EX2" s="16"/>
+      <c r="EY2" s="16"/>
+      <c r="EZ2" s="16"/>
+      <c r="FA2" s="16"/>
+      <c r="FB2" s="16"/>
+      <c r="FC2" s="16"/>
+      <c r="FD2" s="16"/>
+      <c r="FE2" s="16"/>
+      <c r="FF2" s="16"/>
+      <c r="FG2" s="16"/>
+      <c r="FH2" s="16"/>
+      <c r="FI2" s="16"/>
+      <c r="FJ2" s="16"/>
+      <c r="FK2" s="16"/>
+      <c r="FL2" s="16"/>
+      <c r="FM2" s="16"/>
+      <c r="FN2" s="16"/>
+      <c r="FO2" s="16"/>
+      <c r="FP2" s="16"/>
+      <c r="FQ2" s="16"/>
+      <c r="FR2" s="16"/>
+      <c r="FS2" s="16"/>
+      <c r="FT2" s="16"/>
+      <c r="FU2" s="16"/>
+      <c r="FV2" s="16"/>
+      <c r="FW2" s="16"/>
+      <c r="FX2" s="16"/>
+      <c r="FY2" s="16"/>
+      <c r="FZ2" s="16"/>
+      <c r="GA2" s="16"/>
+      <c r="GB2" s="16"/>
+      <c r="GC2" s="16"/>
+      <c r="GD2" s="16"/>
+      <c r="GE2" s="16"/>
+      <c r="GF2" s="16"/>
+      <c r="GG2" s="16"/>
+      <c r="GH2" s="16"/>
+      <c r="GI2" s="16"/>
+      <c r="GJ2" s="16"/>
+      <c r="GK2" s="16"/>
+      <c r="GL2" s="16"/>
+      <c r="GM2" s="16"/>
+      <c r="GN2" s="16"/>
+      <c r="GO2" s="16"/>
+      <c r="GP2" s="16"/>
+      <c r="GQ2" s="16"/>
+      <c r="GR2" s="16"/>
+      <c r="GS2" s="16"/>
+      <c r="GT2" s="16"/>
+      <c r="GU2" s="16"/>
+      <c r="GV2" s="16"/>
+      <c r="GW2" s="16"/>
+      <c r="GX2" s="16"/>
+      <c r="GY2" s="16"/>
+      <c r="GZ2" s="16"/>
+      <c r="HA2" s="16"/>
+      <c r="HB2" s="16"/>
+      <c r="HC2" s="16"/>
+      <c r="HD2" s="16"/>
+      <c r="HE2" s="16"/>
+      <c r="HF2" s="16"/>
+      <c r="HG2" s="16"/>
+      <c r="HH2" s="16"/>
+      <c r="HI2" s="16"/>
+      <c r="HJ2" s="16"/>
+      <c r="HK2" s="16"/>
+      <c r="HL2" s="16"/>
+      <c r="HM2" s="16"/>
+      <c r="HN2" s="16"/>
     </row>
     <row r="3" s="4" customFormat="1" ht="15.6" spans="1:222">
       <c r="A3" s="9" t="s">
@@ -2869,219 +2866,219 @@
         <v>19</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="19"/>
-      <c r="CF3" s="19"/>
-      <c r="CG3" s="19"/>
-      <c r="CH3" s="19"/>
-      <c r="CI3" s="19"/>
-      <c r="CJ3" s="19"/>
-      <c r="CK3" s="19"/>
-      <c r="CL3" s="19"/>
-      <c r="CM3" s="19"/>
-      <c r="CN3" s="19"/>
-      <c r="CO3" s="19"/>
-      <c r="CP3" s="19"/>
-      <c r="CQ3" s="19"/>
-      <c r="CR3" s="19"/>
-      <c r="CS3" s="19"/>
-      <c r="CT3" s="19"/>
-      <c r="CU3" s="19"/>
-      <c r="CV3" s="19"/>
-      <c r="CW3" s="19"/>
-      <c r="CX3" s="19"/>
-      <c r="CY3" s="19"/>
-      <c r="CZ3" s="19"/>
-      <c r="DA3" s="19"/>
-      <c r="DB3" s="19"/>
-      <c r="DC3" s="19"/>
-      <c r="DD3" s="19"/>
-      <c r="DE3" s="19"/>
-      <c r="DF3" s="19"/>
-      <c r="DG3" s="19"/>
-      <c r="DH3" s="19"/>
-      <c r="DI3" s="19"/>
-      <c r="DJ3" s="19"/>
-      <c r="DK3" s="19"/>
-      <c r="DL3" s="19"/>
-      <c r="DM3" s="19"/>
-      <c r="DN3" s="19"/>
-      <c r="DO3" s="19"/>
-      <c r="DP3" s="19"/>
-      <c r="DQ3" s="19"/>
-      <c r="DR3" s="19"/>
-      <c r="DS3" s="19"/>
-      <c r="DT3" s="19"/>
-      <c r="DU3" s="19"/>
-      <c r="DV3" s="19"/>
-      <c r="DW3" s="19"/>
-      <c r="DX3" s="19"/>
-      <c r="DY3" s="19"/>
-      <c r="DZ3" s="19"/>
-      <c r="EA3" s="19"/>
-      <c r="EB3" s="19"/>
-      <c r="EC3" s="19"/>
-      <c r="ED3" s="19"/>
-      <c r="EE3" s="19"/>
-      <c r="EF3" s="19"/>
-      <c r="EG3" s="19"/>
-      <c r="EH3" s="19"/>
-      <c r="EI3" s="19"/>
-      <c r="EJ3" s="19"/>
-      <c r="EK3" s="19"/>
-      <c r="EL3" s="19"/>
-      <c r="EM3" s="19"/>
-      <c r="EN3" s="19"/>
-      <c r="EO3" s="19"/>
-      <c r="EP3" s="19"/>
-      <c r="EQ3" s="19"/>
-      <c r="ER3" s="19"/>
-      <c r="ES3" s="19"/>
-      <c r="ET3" s="19"/>
-      <c r="EU3" s="19"/>
-      <c r="EV3" s="19"/>
-      <c r="EW3" s="19"/>
-      <c r="EX3" s="19"/>
-      <c r="EY3" s="19"/>
-      <c r="EZ3" s="19"/>
-      <c r="FA3" s="19"/>
-      <c r="FB3" s="19"/>
-      <c r="FC3" s="19"/>
-      <c r="FD3" s="19"/>
-      <c r="FE3" s="19"/>
-      <c r="FF3" s="19"/>
-      <c r="FG3" s="19"/>
-      <c r="FH3" s="19"/>
-      <c r="FI3" s="19"/>
-      <c r="FJ3" s="19"/>
-      <c r="FK3" s="19"/>
-      <c r="FL3" s="19"/>
-      <c r="FM3" s="19"/>
-      <c r="FN3" s="19"/>
-      <c r="FO3" s="19"/>
-      <c r="FP3" s="19"/>
-      <c r="FQ3" s="19"/>
-      <c r="FR3" s="19"/>
-      <c r="FS3" s="19"/>
-      <c r="FT3" s="19"/>
-      <c r="FU3" s="19"/>
-      <c r="FV3" s="19"/>
-      <c r="FW3" s="19"/>
-      <c r="FX3" s="19"/>
-      <c r="FY3" s="19"/>
-      <c r="FZ3" s="19"/>
-      <c r="GA3" s="19"/>
-      <c r="GB3" s="19"/>
-      <c r="GC3" s="19"/>
-      <c r="GD3" s="19"/>
-      <c r="GE3" s="19"/>
-      <c r="GF3" s="19"/>
-      <c r="GG3" s="19"/>
-      <c r="GH3" s="19"/>
-      <c r="GI3" s="19"/>
-      <c r="GJ3" s="19"/>
-      <c r="GK3" s="19"/>
-      <c r="GL3" s="19"/>
-      <c r="GM3" s="19"/>
-      <c r="GN3" s="19"/>
-      <c r="GO3" s="19"/>
-      <c r="GP3" s="19"/>
-      <c r="GQ3" s="19"/>
-      <c r="GR3" s="19"/>
-      <c r="GS3" s="19"/>
-      <c r="GT3" s="19"/>
-      <c r="GU3" s="19"/>
-      <c r="GV3" s="19"/>
-      <c r="GW3" s="19"/>
-      <c r="GX3" s="19"/>
-      <c r="GY3" s="19"/>
-      <c r="GZ3" s="19"/>
-      <c r="HA3" s="19"/>
-      <c r="HB3" s="19"/>
-      <c r="HC3" s="19"/>
-      <c r="HD3" s="19"/>
-      <c r="HE3" s="19"/>
-      <c r="HF3" s="19"/>
-      <c r="HG3" s="19"/>
-      <c r="HH3" s="19"/>
-      <c r="HI3" s="19"/>
-      <c r="HJ3" s="19"/>
-      <c r="HK3" s="19"/>
-      <c r="HL3" s="19"/>
-      <c r="HM3" s="19"/>
-      <c r="HN3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="CA3" s="18"/>
+      <c r="CB3" s="18"/>
+      <c r="CC3" s="18"/>
+      <c r="CD3" s="18"/>
+      <c r="CE3" s="18"/>
+      <c r="CF3" s="18"/>
+      <c r="CG3" s="18"/>
+      <c r="CH3" s="18"/>
+      <c r="CI3" s="18"/>
+      <c r="CJ3" s="18"/>
+      <c r="CK3" s="18"/>
+      <c r="CL3" s="18"/>
+      <c r="CM3" s="18"/>
+      <c r="CN3" s="18"/>
+      <c r="CO3" s="18"/>
+      <c r="CP3" s="18"/>
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18"/>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="18"/>
+      <c r="CV3" s="18"/>
+      <c r="CW3" s="18"/>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="18"/>
+      <c r="CZ3" s="18"/>
+      <c r="DA3" s="18"/>
+      <c r="DB3" s="18"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="18"/>
+      <c r="DE3" s="18"/>
+      <c r="DF3" s="18"/>
+      <c r="DG3" s="18"/>
+      <c r="DH3" s="18"/>
+      <c r="DI3" s="18"/>
+      <c r="DJ3" s="18"/>
+      <c r="DK3" s="18"/>
+      <c r="DL3" s="18"/>
+      <c r="DM3" s="18"/>
+      <c r="DN3" s="18"/>
+      <c r="DO3" s="18"/>
+      <c r="DP3" s="18"/>
+      <c r="DQ3" s="18"/>
+      <c r="DR3" s="18"/>
+      <c r="DS3" s="18"/>
+      <c r="DT3" s="18"/>
+      <c r="DU3" s="18"/>
+      <c r="DV3" s="18"/>
+      <c r="DW3" s="18"/>
+      <c r="DX3" s="18"/>
+      <c r="DY3" s="18"/>
+      <c r="DZ3" s="18"/>
+      <c r="EA3" s="18"/>
+      <c r="EB3" s="18"/>
+      <c r="EC3" s="18"/>
+      <c r="ED3" s="18"/>
+      <c r="EE3" s="18"/>
+      <c r="EF3" s="18"/>
+      <c r="EG3" s="18"/>
+      <c r="EH3" s="18"/>
+      <c r="EI3" s="18"/>
+      <c r="EJ3" s="18"/>
+      <c r="EK3" s="18"/>
+      <c r="EL3" s="18"/>
+      <c r="EM3" s="18"/>
+      <c r="EN3" s="18"/>
+      <c r="EO3" s="18"/>
+      <c r="EP3" s="18"/>
+      <c r="EQ3" s="18"/>
+      <c r="ER3" s="18"/>
+      <c r="ES3" s="18"/>
+      <c r="ET3" s="18"/>
+      <c r="EU3" s="18"/>
+      <c r="EV3" s="18"/>
+      <c r="EW3" s="18"/>
+      <c r="EX3" s="18"/>
+      <c r="EY3" s="18"/>
+      <c r="EZ3" s="18"/>
+      <c r="FA3" s="18"/>
+      <c r="FB3" s="18"/>
+      <c r="FC3" s="18"/>
+      <c r="FD3" s="18"/>
+      <c r="FE3" s="18"/>
+      <c r="FF3" s="18"/>
+      <c r="FG3" s="18"/>
+      <c r="FH3" s="18"/>
+      <c r="FI3" s="18"/>
+      <c r="FJ3" s="18"/>
+      <c r="FK3" s="18"/>
+      <c r="FL3" s="18"/>
+      <c r="FM3" s="18"/>
+      <c r="FN3" s="18"/>
+      <c r="FO3" s="18"/>
+      <c r="FP3" s="18"/>
+      <c r="FQ3" s="18"/>
+      <c r="FR3" s="18"/>
+      <c r="FS3" s="18"/>
+      <c r="FT3" s="18"/>
+      <c r="FU3" s="18"/>
+      <c r="FV3" s="18"/>
+      <c r="FW3" s="18"/>
+      <c r="FX3" s="18"/>
+      <c r="FY3" s="18"/>
+      <c r="FZ3" s="18"/>
+      <c r="GA3" s="18"/>
+      <c r="GB3" s="18"/>
+      <c r="GC3" s="18"/>
+      <c r="GD3" s="18"/>
+      <c r="GE3" s="18"/>
+      <c r="GF3" s="18"/>
+      <c r="GG3" s="18"/>
+      <c r="GH3" s="18"/>
+      <c r="GI3" s="18"/>
+      <c r="GJ3" s="18"/>
+      <c r="GK3" s="18"/>
+      <c r="GL3" s="18"/>
+      <c r="GM3" s="18"/>
+      <c r="GN3" s="18"/>
+      <c r="GO3" s="18"/>
+      <c r="GP3" s="18"/>
+      <c r="GQ3" s="18"/>
+      <c r="GR3" s="18"/>
+      <c r="GS3" s="18"/>
+      <c r="GT3" s="18"/>
+      <c r="GU3" s="18"/>
+      <c r="GV3" s="18"/>
+      <c r="GW3" s="18"/>
+      <c r="GX3" s="18"/>
+      <c r="GY3" s="18"/>
+      <c r="GZ3" s="18"/>
+      <c r="HA3" s="18"/>
+      <c r="HB3" s="18"/>
+      <c r="HC3" s="18"/>
+      <c r="HD3" s="18"/>
+      <c r="HE3" s="18"/>
+      <c r="HF3" s="18"/>
+      <c r="HG3" s="18"/>
+      <c r="HH3" s="18"/>
+      <c r="HI3" s="18"/>
+      <c r="HJ3" s="18"/>
+      <c r="HK3" s="18"/>
+      <c r="HL3" s="18"/>
+      <c r="HM3" s="18"/>
+      <c r="HN3" s="18"/>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="11">
@@ -3514,30 +3511,6 @@
         <v>1</v>
       </c>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
